--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value147.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value147.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9399633914324215</v>
+        <v>0.5725536346435547</v>
       </c>
       <c r="B1">
-        <v>1.800919947775079</v>
+        <v>2.698996782302856</v>
       </c>
       <c r="C1">
-        <v>2.781605308919512</v>
+        <v>4.448913097381592</v>
       </c>
       <c r="D1">
-        <v>2.714773534626802</v>
+        <v>1.671173334121704</v>
       </c>
       <c r="E1">
-        <v>0.9999999488229186</v>
+        <v>1.192523121833801</v>
       </c>
     </row>
   </sheetData>
